--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2836580.866728562</v>
+        <v>2834328.787017355</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>362.5620476897406</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>149.3482793282683</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -829,7 +829,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>157.7822070347172</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>163.472338733543</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>55.45354938846194</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>241.6499314317617</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>126.0955237083908</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>9.595802811127321</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>177.2776744015467</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>71.68269007697693</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>71.67037196991711</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>26.05155675490684</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>75.08886905994629</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>160.1597912951064</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.799772605716168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.1193700387787</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.96838802184498</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>83.06560892428168</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1659.057359339774</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="C2" t="n">
-        <v>1659.057359339774</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D2" t="n">
-        <v>1300.791660733023</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649821</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.796531379707</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2435.796531379707</v>
+        <v>1921.118538374307</v>
       </c>
       <c r="Y2" t="n">
-        <v>2045.657199403895</v>
+        <v>1530.979206398496</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,7 +4413,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1767.918581386758</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>1478.501411349798</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2291.674678112794</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="C5" t="n">
-        <v>1922.712161172383</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1564.446462565632</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1178.658209967388</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>767.6723051777806</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>352.599855022777</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176916</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>2678.274518176916</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>2678.274518176916</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.8175152271517</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="C7" t="n">
-        <v>193.8813322992448</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>193.8813322992448</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>193.8813322992448</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4753,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1092.298121480354</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>864.3085705823368</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.8175152271517</v>
+        <v>643.5159914388066</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1811.579746109089</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="C8" t="n">
-        <v>1442.617229168677</v>
+        <v>942.9472709150243</v>
       </c>
       <c r="D8" t="n">
-        <v>1084.351530561927</v>
+        <v>584.6815723082739</v>
       </c>
       <c r="E8" t="n">
-        <v>698.5632779636826</v>
+        <v>198.8933197100296</v>
       </c>
       <c r="F8" t="n">
-        <v>287.577373174075</v>
+        <v>191.9478189608262</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>180.9157728462267</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410102</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410102</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2588.318918149022</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>2198.179586173211</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>138.9064315533118</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1300.279904748355</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1010.862734711394</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>782.8731838133765</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,28 +5033,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,13 +5112,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
         <v>427.7414352191925</v>
@@ -5130,16 +5130,16 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.0655846733346</v>
+        <v>923.4916164683274</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1294017454277</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782946</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797733</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>982.5066286471044</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.7140495035743</v>
+        <v>923.4916164683274</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5285,43 +5285,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5416,22 +5416,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5501,37 +5501,37 @@
         <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075806</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
@@ -5595,22 +5595,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5744,13 +5744,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5765,13 +5765,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,7 +6221,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,16 +7406,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745236</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338367</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,13 +7549,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7634,25 +7634,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7664,10 +7664,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438179</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.15795203868154</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>65.54986409393072</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>63.36835372228749</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.7081534528</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534526</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.7081534526</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="H2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="N2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442545</v>
+        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813257</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678127</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678119</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="I4" t="n">
+        <v>10557.08828678122</v>
+      </c>
+      <c r="J4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10557.08828678123</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26448,13 +26448,13 @@
         <v>10557.08828678122</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678119</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="N4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849063.3492090849</v>
+        <v>-849063.3492090844</v>
       </c>
       <c r="C6" t="n">
         <v>479681.3965185077</v>
       </c>
       <c r="D6" t="n">
-        <v>479681.3965185079</v>
+        <v>479681.3965185082</v>
       </c>
       <c r="E6" t="n">
-        <v>228803.8648262116</v>
+        <v>228769.1269007756</v>
       </c>
       <c r="F6" t="n">
-        <v>554216.3266335668</v>
+        <v>554181.5887081312</v>
       </c>
       <c r="G6" t="n">
-        <v>554216.3266335666</v>
+        <v>554181.5887081309</v>
       </c>
       <c r="H6" t="n">
-        <v>554216.3266335666</v>
+        <v>554181.5887081309</v>
       </c>
       <c r="I6" t="n">
-        <v>554216.3266335669</v>
+        <v>554181.5887081313</v>
       </c>
       <c r="J6" t="n">
-        <v>336685.1242362889</v>
+        <v>336650.3863108532</v>
       </c>
       <c r="K6" t="n">
-        <v>554216.3266335665</v>
+        <v>554181.588708131</v>
       </c>
       <c r="L6" t="n">
-        <v>554216.3266335665</v>
+        <v>554181.5887081312</v>
       </c>
       <c r="M6" t="n">
-        <v>469161.2986980546</v>
+        <v>469126.560772619</v>
       </c>
       <c r="N6" t="n">
-        <v>554216.3266335664</v>
+        <v>554181.5887081311</v>
       </c>
       <c r="O6" t="n">
-        <v>554216.3266335668</v>
+        <v>554181.588708131</v>
       </c>
       <c r="P6" t="n">
-        <v>554216.3266335662</v>
+        <v>554181.5887081309</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19.36832238252123</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>220.3828213502007</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>94.3554362891108</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>62.23731665549411</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>309.8193423825456</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>52.95783295555876</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>19.32552431454047</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.9271955254637</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>233.6440512519067</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>222.9250743103435</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>24.68204843992098</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>226.0860865689212</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28573,13 +28573,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,10 +32315,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32488,7 +32488,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236501</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32552,16 +32552,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32950,7 +32950,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M26" t="n">
         <v>965.6463440175675</v>
@@ -33026,16 +33026,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>165.2255134509767</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33652,10 +33652,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33974,16 +33974,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.410447117911</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34454,28 +34454,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622667</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295222</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>31.25110603664647</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394708</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402485</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
